--- a/xforms/xlsforms/pregnancy_observation.xlsx
+++ b/xforms/xlsforms/pregnancy_observation.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="-195" windowWidth="15600" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="10185" yWindow="3930" windowWidth="10230" windowHeight="3960" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
   <si>
     <t>type</t>
   </si>
@@ -216,15 +216,9 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>pregnancy_observation</t>
   </si>
   <si>
-    <t>Pregnancy observation  registration</t>
-  </si>
-  <si>
     <t>.&lt; today()</t>
   </si>
   <si>
@@ -304,13 +298,127 @@
   </si>
   <si>
     <t>processed</t>
+  </si>
+  <si>
+    <t>Quantos meses tem esta gravidez</t>
+  </si>
+  <si>
+    <t>Idade da gravidez de acordo com as notas de gravidez</t>
+  </si>
+  <si>
+    <t>Será que a futura mãe tem (notas de gravidez):</t>
+  </si>
+  <si>
+    <t>Já esteve numa clinica de antenatal?</t>
+  </si>
+  <si>
+    <t>Data da ultima visita à clinica?</t>
+  </si>
+  <si>
+    <t>Chegou a ir há qualquer outra instituição de saúde?</t>
+  </si>
+  <si>
+    <t>Recebeu qualquer medicamento para a Gravidez?</t>
+  </si>
+  <si>
+    <t>Recebeu vacina contra tetano?</t>
+  </si>
+  <si>
+    <t>Especifique, se tiver tomado outro medicamento</t>
+  </si>
+  <si>
+    <t>Numero total de gravidezes até o momento?</t>
+  </si>
+  <si>
+    <t>ExtId da mulher</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>Id da visita</t>
+  </si>
+  <si>
+    <t>Data do registo de observação</t>
+  </si>
+  <si>
+    <t>Data estimada de parto</t>
+  </si>
+  <si>
+    <t>permId</t>
+  </si>
+  <si>
+    <t>Perm Id da mulher</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>label::Portuguese</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Centro de saude ou clinica</t>
+  </si>
+  <si>
+    <t>Medico tradicional</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
+  </si>
+  <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>Em casa da parteira tradicional</t>
+  </si>
+  <si>
+    <t>Não fui a clinica de antenatal/Não encontrei meu cartão</t>
+  </si>
+  <si>
+    <t>Cartão da clinica/Registo de gravidez</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>Registo de Observação de gravidez</t>
+  </si>
+  <si>
+    <r>
+      <t>concat("ObsGravidez_", $</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>{permId}, "_", format-date(today(),"%Y%n%e")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -360,6 +468,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1457,33 +1571,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="36.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="45" style="5" customWidth="1"/>
-    <col min="4" max="4" width="37.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25" style="5" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="5"/>
-    <col min="11" max="11" width="19.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="34.125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="5"/>
+    <col min="3" max="3" width="44.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="45" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25" style="5" customWidth="1"/>
+    <col min="10" max="11" width="10.875" style="5"/>
+    <col min="12" max="12" width="19.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="34.125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="12" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1491,59 +1606,62 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="12" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1555,15 +1673,16 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" ht="12" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1575,15 +1694,16 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" ht="12" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1595,336 +1715,398 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" ht="12" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="J5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="12" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="12" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="12" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="12" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="b">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="12" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="4" t="b">
+      <c r="J10" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="11" spans="1:18" ht="12" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="4" t="b">
+      <c r="J11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M11" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="12" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="12" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="12" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="12" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="12" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="12" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" ht="12" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="7" customFormat="1" ht="12" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="12" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="J20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="4" t="b">
+      <c r="C21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N21" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="I15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="I16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="I17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="I19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="12" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1932,9 +2114,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" ht="12" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1942,9 +2124,10 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="2"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="12" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1952,9 +2135,10 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="2"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="12" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1962,8 +2146,10 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="2"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" ht="12" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1971,64 +2157,75 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I31" s="3"/>
-    </row>
-    <row r="39" spans="9:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I39" s="3"/>
-    </row>
-    <row r="47" spans="9:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="9:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="9:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="9:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="9:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I51" s="3"/>
-    </row>
-    <row r="68" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" ht="12" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="31" spans="1:14" ht="12" customHeight="1">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" ht="12" customHeight="1">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="40" spans="10:10" ht="12" customHeight="1">
+      <c r="J40" s="3"/>
+    </row>
+    <row r="48" spans="10:10" ht="12" customHeight="1">
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="10:10" ht="12" customHeight="1">
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="10:10" ht="12" customHeight="1">
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="10:10" ht="12" customHeight="1">
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="10:10" ht="12" customHeight="1">
+      <c r="J52" s="3"/>
+    </row>
+    <row r="69" spans="1:10" ht="12" customHeight="1">
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" ht="12" customHeight="1">
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" ht="12" customHeight="1">
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" ht="12" customHeight="1">
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" ht="12" customHeight="1">
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10" ht="12" customHeight="1">
       <c r="A74" s="3"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10" ht="12" customHeight="1">
       <c r="A75" s="3"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I76" s="3"/>
-    </row>
-    <row r="78" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I78" s="3"/>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" ht="12" customHeight="1">
+      <c r="A76" s="3"/>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" ht="12" customHeight="1">
+      <c r="J77" s="3"/>
+    </row>
+    <row r="79" spans="1:10" ht="12" customHeight="1">
+      <c r="J79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2037,23 +2234,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="33.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="51.875" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="5"/>
+    <col min="3" max="3" width="51.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="51.875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -2061,13 +2259,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -2075,328 +2276,390 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>85</v>
-      </c>
       <c r="C4" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="9">
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="9">
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="9">
         <v>99</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="11"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="11"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="11"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="11"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="11"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="11"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="11"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="11"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="11"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="11"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="11"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="11"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="11"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="11"/>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="11"/>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="11"/>
       <c r="B35" s="9"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="11"/>
       <c r="B36" s="9"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="11"/>
       <c r="B37" s="9"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="11"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="11"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="11"/>
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="11"/>
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="11"/>
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="11"/>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2405,16 +2668,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2424,20 +2693,26 @@
       <c r="C1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xforms/xlsforms/pregnancy_observation.xlsx
+++ b/xforms/xlsforms/pregnancy_observation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="3930" windowWidth="10230" windowHeight="3960" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="10185" yWindow="3930" windowWidth="10230" windowHeight="3960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="110">
   <si>
     <t>type</t>
   </si>
@@ -87,24 +87,12 @@
     <t>estimatedAgeOfPreg</t>
   </si>
   <si>
-    <t>select_one pregNotes</t>
-  </si>
-  <si>
     <t>pregNotes</t>
   </si>
   <si>
-    <t>ageOfPregFromPregNotes</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>lastClinicVisitDate</t>
-  </si>
-  <si>
-    <t>pregnancyNumber</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -129,30 +117,6 @@
     <t>Number of months pregnant</t>
   </si>
   <si>
-    <t>Je, Mama mjamzito ana:</t>
-  </si>
-  <si>
-    <t>Does the expectant mother have:</t>
-  </si>
-  <si>
-    <t>Umri wa mimba kutoka kwenye kadi</t>
-  </si>
-  <si>
-    <t>Age of pregnancy from pregnancy notes</t>
-  </si>
-  <si>
-    <t>Uliwahi hudhuria kliniki ya ANC?</t>
-  </si>
-  <si>
-    <t>Have you been to an ANC clinic?</t>
-  </si>
-  <si>
-    <t>Tarehe ya mwisho kuhuduria kliniki</t>
-  </si>
-  <si>
-    <t>Last clinic visit date</t>
-  </si>
-  <si>
     <t>Ujauzito wa ngapi?</t>
   </si>
   <si>
@@ -204,9 +168,6 @@
     <t>Recorded Date</t>
   </si>
   <si>
-    <t>.&lt;52</t>
-  </si>
-  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -219,24 +180,6 @@
     <t>pregnancy_observation</t>
   </si>
   <si>
-    <t>.&lt; today()</t>
-  </si>
-  <si>
-    <t>healthfacility</t>
-  </si>
-  <si>
-    <t>anteNatalClinic</t>
-  </si>
-  <si>
-    <t>../anteNatalClinic=1</t>
-  </si>
-  <si>
-    <t>select_one otherHealthFacility</t>
-  </si>
-  <si>
-    <t>Have you attended any other Health Facility?</t>
-  </si>
-  <si>
     <t>otherHealthFacility</t>
   </si>
   <si>
@@ -282,54 +225,15 @@
     <t>Specify if other medicine</t>
   </si>
   <si>
-    <t>othermedicine</t>
-  </si>
-  <si>
     <t>Clinic card/Pregnancy register</t>
   </si>
   <si>
-    <t>../pregNotes = 1</t>
-  </si>
-  <si>
-    <t>.&gt; today()</t>
-  </si>
-  <si>
     <t>processedByMirth</t>
   </si>
   <si>
     <t>processed</t>
   </si>
   <si>
-    <t>Quantos meses tem esta gravidez</t>
-  </si>
-  <si>
-    <t>Idade da gravidez de acordo com as notas de gravidez</t>
-  </si>
-  <si>
-    <t>Será que a futura mãe tem (notas de gravidez):</t>
-  </si>
-  <si>
-    <t>Já esteve numa clinica de antenatal?</t>
-  </si>
-  <si>
-    <t>Data da ultima visita à clinica?</t>
-  </si>
-  <si>
-    <t>Chegou a ir há qualquer outra instituição de saúde?</t>
-  </si>
-  <si>
-    <t>Recebeu qualquer medicamento para a Gravidez?</t>
-  </si>
-  <si>
-    <t>Recebeu vacina contra tetano?</t>
-  </si>
-  <si>
-    <t>Especifique, se tiver tomado outro medicamento</t>
-  </si>
-  <si>
-    <t>Numero total de gravidezes até o momento?</t>
-  </si>
-  <si>
     <t>ExtId da mulher</t>
   </si>
   <si>
@@ -337,12 +241,6 @@
   </si>
   <si>
     <t>Id da visita</t>
-  </si>
-  <si>
-    <t>Data do registo de observação</t>
-  </si>
-  <si>
-    <t>Data estimada de parto</t>
   </si>
   <si>
     <t>permId</t>
@@ -412,6 +310,63 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Nome da mulher</t>
+  </si>
+  <si>
+    <t>.&gt;= today()</t>
+  </si>
+  <si>
+    <t>8. Data do registo de observação</t>
+  </si>
+  <si>
+    <t>9. Quantos meses tem esta gravidez</t>
+  </si>
+  <si>
+    <t>10. Numero total de gravidezes até o momento?</t>
+  </si>
+  <si>
+    <t>11. Destas gravidezes quantas foram perdidas?</t>
+  </si>
+  <si>
+    <t>12. Data estimada de parto</t>
+  </si>
+  <si>
+    <t>14. Recebeu vacina contra tetano?</t>
+  </si>
+  <si>
+    <t>lostPregnancies</t>
+  </si>
+  <si>
+    <t>. &gt;= 0</t>
+  </si>
+  <si>
+    <t>O numero não pode ser negativo</t>
+  </si>
+  <si>
+    <t>numberOfPregncancies</t>
+  </si>
+  <si>
+    <t>13. Recebeu qualquer medicamento durante a Gravidez?</t>
+  </si>
+  <si>
+    <t>ttinjectionDates</t>
+  </si>
+  <si>
+    <t>14.1 Introduza as datas em toma a vacina.</t>
+  </si>
+  <si>
+    <t>7. Nome da mulher</t>
+  </si>
+  <si>
+    <t>${ttinjection}=1</t>
+  </si>
+  <si>
+    <t>processedBySync</t>
+  </si>
+  <si>
+    <t>processed by dbsync</t>
   </si>
 </sst>
 </file>
@@ -1572,13 +1527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12" customHeight="1"/>
@@ -1606,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
@@ -1719,19 +1674,19 @@
     </row>
     <row r="5" spans="1:18" ht="12" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1745,19 +1700,19 @@
     </row>
     <row r="6" spans="1:18" ht="12" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1771,19 +1726,19 @@
     </row>
     <row r="7" spans="1:18" ht="12" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1797,13 +1752,13 @@
     </row>
     <row r="8" spans="1:18" ht="12" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1818,142 +1773,151 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="12" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="J9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="N9" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="12" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="J10" s="4" t="b">
         <v>1</v>
       </c>
+      <c r="N10" s="5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="12" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:18" ht="12" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>82</v>
+      <c r="A12" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J12" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="12" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
+      <c r="A13" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>67</v>
+        <v>100</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="J13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="12" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>72</v>
+    </row>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="12" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="J14" s="4" t="b">
         <v>1</v>
@@ -1961,19 +1925,19 @@
     </row>
     <row r="15" spans="1:18" ht="12" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="J15" s="4" t="b">
         <v>1</v>
@@ -1981,19 +1945,19 @@
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="J16" s="4" t="b">
         <v>1</v>
@@ -2001,110 +1965,88 @@
     </row>
     <row r="17" spans="1:14" ht="12" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" ht="12" customHeight="1">
-      <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="4" t="b">
+        <v>71</v>
+      </c>
+      <c r="N18" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="7" customFormat="1" ht="12" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="7" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="4" t="b">
+      <c r="C19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="12" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="J20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N21" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" ht="12" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:14" ht="12" customHeight="1">
       <c r="A22" s="2"/>
@@ -2115,6 +2057,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="12" customHeight="1">
       <c r="A23" s="2"/>
@@ -2125,7 +2068,6 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:14" ht="12" customHeight="1">
       <c r="A24" s="2"/>
@@ -2138,46 +2080,23 @@
       <c r="H24" s="2"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="12" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="12" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="12" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="31" spans="1:14" ht="12" customHeight="1">
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="12" customHeight="1">
-      <c r="J32" s="3"/>
-    </row>
-    <row r="40" spans="10:10" ht="12" customHeight="1">
-      <c r="J40" s="3"/>
+    <row r="28" spans="1:14" ht="12" customHeight="1">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" ht="12" customHeight="1">
+      <c r="J29" s="3"/>
+    </row>
+    <row r="37" spans="10:10" ht="12" customHeight="1">
+      <c r="J37" s="3"/>
+    </row>
+    <row r="45" spans="10:10" ht="12" customHeight="1">
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="10:10" ht="12" customHeight="1">
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="10:10" ht="12" customHeight="1">
+      <c r="J47" s="3"/>
     </row>
     <row r="48" spans="10:10" ht="12" customHeight="1">
       <c r="J48" s="3"/>
@@ -2185,14 +2104,14 @@
     <row r="49" spans="10:10" ht="12" customHeight="1">
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="10:10" ht="12" customHeight="1">
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="10:10" ht="12" customHeight="1">
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="10:10" ht="12" customHeight="1">
-      <c r="J52" s="3"/>
+    <row r="66" spans="1:10" ht="12" customHeight="1">
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" ht="12" customHeight="1">
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" ht="12" customHeight="1">
+      <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="12" customHeight="1">
       <c r="J69" s="3"/>
@@ -2201,31 +2120,22 @@
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" ht="12" customHeight="1">
+      <c r="A71" s="3"/>
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" ht="12" customHeight="1">
+      <c r="A72" s="3"/>
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" ht="12" customHeight="1">
+      <c r="A73" s="3"/>
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="12" customHeight="1">
-      <c r="A74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" ht="12" customHeight="1">
-      <c r="A75" s="3"/>
-      <c r="J75" s="3"/>
-    </row>
     <row r="76" spans="1:10" ht="12" customHeight="1">
-      <c r="A76" s="3"/>
       <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:10" ht="12" customHeight="1">
-      <c r="J77" s="3"/>
-    </row>
-    <row r="79" spans="1:10" ht="12" customHeight="1">
-      <c r="J79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2259,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
@@ -2270,172 +2180,172 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="9">
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="9">
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B9" s="9">
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B10" s="9">
         <v>5</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B11" s="9">
         <v>99</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2671,7 +2581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2685,30 +2595,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
